--- a/Participants Info.xlsx
+++ b/Participants Info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\RPS\Accenture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFEA429-D9E9-47F0-8661-635F4C82557F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6AEDB07-59D6-4F1A-B0D1-617F283142C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2868" yWindow="528" windowWidth="12204" windowHeight="11064" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="67">
   <si>
     <t>24KAR0048-TR</t>
   </si>
@@ -214,6 +214,18 @@
   </si>
   <si>
     <t>https://cloud.cdp.rpsconsulting.in/console/#</t>
+  </si>
+  <si>
+    <t>Prasad Suraj</t>
+  </si>
+  <si>
+    <t>Anish Meril Fernando A, Joseph</t>
+  </si>
+  <si>
+    <t>Lokeshwari Perumal</t>
+  </si>
+  <si>
+    <t>Malik Ankit</t>
   </si>
 </sst>
 </file>
@@ -292,7 +304,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -311,6 +323,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -594,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D4:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -938,7 +953,9 @@
       <c r="F28" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="29" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D29" s="4">
@@ -950,7 +967,9 @@
       <c r="F29" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G29" s="1"/>
+      <c r="G29" s="8" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="30" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D30" s="4">
@@ -962,7 +981,9 @@
       <c r="F30" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G30" s="1"/>
+      <c r="G30" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="31" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D31" s="4">
@@ -974,7 +995,9 @@
       <c r="F31" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G31" s="1"/>
+      <c r="G31" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="32" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D32" s="4">
